--- a/server/top250.xlsx
+++ b/server/top250.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\happymovie\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\happymovie\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D0930-01DC-485A-B397-E20701B6A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A101E-8344-4CB3-A86A-BB45F96CB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>movie_name</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>movie_rating</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie_likability</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -469,9 +472,10 @@
     <col min="2" max="2" width="103.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +485,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -495,8 +502,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,8 +519,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -523,8 +536,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -537,8 +553,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,8 +570,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -565,8 +587,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -579,8 +604,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,26 +621,29 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
